--- a/create cards for OZON WB XLS/Data_to_create3.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create3.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1503,6 +1503,9 @@
     <t xml:space="preserve">Punky Monkey</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1431071314</t>
+  </si>
+  <si>
     <t xml:space="preserve">Полимерный материал</t>
   </si>
   <si>
@@ -1530,10 +1533,16 @@
     <t xml:space="preserve">52_monalisa_cocktails</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1431096420</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Киллиан Мёрфи Острые козырьки</t>
   </si>
   <si>
     <t xml:space="preserve">53_Cillian Murphy_popart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1431070205</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Джон уик john wick дым из глаз</t>
@@ -1569,6 +1578,9 @@
       </rPr>
       <t xml:space="preserve">_smoke</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1431089549</t>
   </si>
   <si>
     <t xml:space="preserve">термонаклейка А4</t>
@@ -1902,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2207,15 +2219,14 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Мона Лиза, Фрида Кало свадьба</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <f aca="false">B2</f>
-        <v>0</v>
+      <c r="P2" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="7" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
@@ -2235,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
@@ -2254,10 +2265,10 @@
         <v>428</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
@@ -2287,7 +2298,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="10"/>
       <c r="AT2" s="0" t="str">
@@ -2295,7 +2306,7 @@
         <v>Мона Лиза, Фрида Кало свадьба</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
@@ -2311,7 +2322,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="10"/>
       <c r="BE2" s="14" t="str">
@@ -2323,7 +2334,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мона Лиза, Фрида Кало свадьба</v>
       </c>
       <c r="BR2" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS2" s="17" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
@@ -2332,10 +2343,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A3, ".pdf")</f>
@@ -2368,15 +2379,14 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A3, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Мона Лиза, Фрида Кало, коктели</v>
       </c>
-      <c r="P3" s="0" t="n">
-        <f aca="false">B3</f>
-        <v>0</v>
+      <c r="P3" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" s="7" t="str">
         <f aca="false">A3&amp;Описание!B8</f>
@@ -2396,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
@@ -2415,10 +2425,10 @@
         <v>428</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="0" t="n">
         <f aca="false">W3</f>
@@ -2448,7 +2458,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS3" s="10"/>
       <c r="AT3" s="0" t="str">
@@ -2456,7 +2466,7 @@
         <v>Мона Лиза, Фрида Кало, коктели</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="0" t="str">
         <f aca="false">S3</f>
@@ -2472,7 +2482,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD3" s="10"/>
       <c r="BE3" s="14" t="str">
@@ -2484,7 +2494,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мона Лиза, Фрида Кало, коктели</v>
       </c>
       <c r="BR3" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS3" s="17" t="str">
         <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
@@ -2493,10 +2503,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A4, ".pdf")</f>
@@ -2529,15 +2539,14 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A4, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Киллиан Мёрфи Острые козырьки</v>
       </c>
-      <c r="P4" s="0" t="n">
-        <f aca="false">B4</f>
-        <v>0</v>
+      <c r="P4" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="7" t="str">
         <f aca="false">A4&amp;Описание!B9</f>
@@ -2557,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
@@ -2576,10 +2585,10 @@
         <v>428</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">W4</f>
@@ -2609,7 +2618,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS4" s="10"/>
       <c r="AT4" s="0" t="str">
@@ -2617,7 +2626,7 @@
         <v>Киллиан Мёрфи Острые козырьки</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV4" s="0" t="str">
         <f aca="false">S4</f>
@@ -2633,7 +2642,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD4" s="10"/>
       <c r="BE4" s="14" t="str">
@@ -2645,7 +2654,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Киллиан Мёрфи Острые козырьки</v>
       </c>
       <c r="BR4" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS4" s="17" t="str">
         <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
@@ -2654,10 +2663,10 @@
     </row>
     <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A5, ".pdf")</f>
@@ -2690,15 +2699,14 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A5, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Джон уик john wick дым из глаз</v>
       </c>
-      <c r="P5" s="0" t="n">
-        <f aca="false">B5</f>
-        <v>0</v>
+      <c r="P5" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" s="7" t="str">
         <f aca="false">A5&amp;Описание!B10</f>
@@ -2718,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
@@ -2737,10 +2745,10 @@
         <v>428</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">W5</f>
@@ -2770,7 +2778,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS5" s="10"/>
       <c r="AT5" s="0" t="str">
@@ -2778,7 +2786,7 @@
         <v>Джон уик john wick дым из глаз</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="0" t="str">
         <f aca="false">S5</f>
@@ -2794,7 +2802,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD5" s="10"/>
       <c r="BE5" s="14" t="str">
@@ -2806,7 +2814,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Джон уик john wick дым из глаз</v>
       </c>
       <c r="BR5" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS5" s="17" t="str">
         <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
@@ -4046,394 +4054,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/Data_to_create3.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create3.xlsx
@@ -1539,7 +1539,7 @@
     <t xml:space="preserve">Термонаклейка Киллиан Мёрфи Острые козырьки</t>
   </si>
   <si>
-    <t xml:space="preserve">53_Cillian Murphy_popart</t>
+    <t xml:space="preserve">53_Cillian_Murphy_popart</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1431070205</t>
@@ -1566,7 +1566,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">john wick</t>
+      <t xml:space="preserve">john_wick</t>
     </r>
     <r>
       <rPr>
@@ -1914,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1944,7 +1944,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="49.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="65.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
@@ -2181,7 +2181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="194" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="E4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C4,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\53_Cillian Murphy_popart.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\53_Cillian_Murphy_popart.tif</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="Y4" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA4" s="0" t="str">
         <f aca="false">A4</f>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="AL4" s="13" t="str">
         <f aca="false">CONCATENATE(H4,C4,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_1.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_1.jpg</v>
       </c>
       <c r="AM4" s="14" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4, C4, "_2.jpg;"),CONCATENATE(H4, C4, "_3.jpg;"),CONCATENATE(H4, C4, "_4.jpg;"),CONCATENATE(H4, C4, "_5.jpg;"),CONCATENATE(H4, C4, "_6.jpg;"),CONCATENATE(H4, C4, "_7.jpg;"),CONCATENATE(H4, C4, "_8.jpg;"),CONCATENATE(H4, C4, "_9.jpg;"),CONCATENATE(H4, C4, "_10.jpg;"),CONCATENATE(H4, "instruction_A4.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
       </c>
       <c r="AP4" s="13" t="str">
         <f aca="false">J4</f>
@@ -2647,7 +2647,7 @@
       <c r="BD4" s="10"/>
       <c r="BE4" s="14" t="str">
         <f aca="false">CONCATENATE(H4,C4,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_color.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_color.jpg</v>
       </c>
       <c r="BM4" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A4,"Термонаклейка",""))</f>
@@ -2661,7 +2661,7 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="173.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C5,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\54_john wick_smoke.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\54_john_wick_smoke.tif</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="Y5" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA5" s="0" t="str">
         <f aca="false">A5</f>
@@ -2767,11 +2767,11 @@
       </c>
       <c r="AL5" s="13" t="str">
         <f aca="false">CONCATENATE(H5,C5,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_1.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_1.jpg</v>
       </c>
       <c r="AM5" s="14" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5, C5, "_2.jpg;"),CONCATENATE(H5, C5, "_3.jpg;"),CONCATENATE(H5, C5, "_4.jpg;"),CONCATENATE(H5, C5, "_5.jpg;"),CONCATENATE(H5, C5, "_6.jpg;"),CONCATENATE(H5, C5, "_7.jpg;"),CONCATENATE(H5, C5, "_8.jpg;"),CONCATENATE(H5, C5, "_9.jpg;"),CONCATENATE(H5, C5, "_10.jpg;"),CONCATENATE(H5, "instruction_A4.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
       </c>
       <c r="AP5" s="13" t="str">
         <f aca="false">J5</f>
@@ -2807,7 +2807,7 @@
       <c r="BD5" s="10"/>
       <c r="BE5" s="14" t="str">
         <f aca="false">CONCATENATE(H5,C5,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_color.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_color.jpg</v>
       </c>
       <c r="BM5" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A5,"Термонаклейка",""))</f>

--- a/create cards for OZON WB XLS/Data_to_create3.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create3.xlsx
@@ -1914,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2661,7 +2661,7 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="173.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="234.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>90</v>
       </c>

--- a/create cards for OZON WB XLS/Data_to_create3.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create3.xlsx
@@ -1556,7 +1556,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">54_</t>
+      <t xml:space="preserve">54_j</t>
     </r>
     <r>
       <rPr>
@@ -1566,7 +1566,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">john_wick</t>
+      <t xml:space="preserve">ohn_wick</t>
     </r>
     <r>
       <rPr>
@@ -1914,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y5" activeCellId="0" sqref="Y5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
